--- a/bin/data/TestDataSheet.xlsx
+++ b/bin/data/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semillero\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semillero\eclipse-workspace\TestExcel\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{992AC91F-BC1F-45B4-813D-600AE42D8B08}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F1C47CF0-104A-4AA4-BC78-3F4F5111F360}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView windowHeight="7875" windowWidth="15375" xWindow="390" xr2:uid="{53346690-D43A-40ED-98E2-EE0121ABA678}" yWindow="390"/>
   </bookViews>
@@ -30,7 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>luffy</t>
+  </si>
+  <si>
+    <t>camara</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +388,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0856D5-BEC8-4777-B007-404926BE2F83}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>